--- a/Code/Results/Cases/Case_6_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_26/res_bus/vm_pu.xlsx
@@ -448,7 +448,7 @@
         <v>1.047784191322064</v>
       </c>
       <c r="M2">
-        <v>1.056570380924098</v>
+        <v>1.056570380924097</v>
       </c>
       <c r="N2">
         <v>1.048461382523064</v>
@@ -462,16 +462,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034053655414265</v>
+        <v>1.034053655414263</v>
       </c>
       <c r="D3">
-        <v>1.047273561280552</v>
+        <v>1.047273561280551</v>
       </c>
       <c r="E3">
-        <v>1.044130328593825</v>
+        <v>1.044130328593823</v>
       </c>
       <c r="F3">
-        <v>1.053247750899361</v>
+        <v>1.053247750899359</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,19 +480,19 @@
         <v>1.053053293987545</v>
       </c>
       <c r="J3">
-        <v>1.053657151063797</v>
+        <v>1.053657151063795</v>
       </c>
       <c r="K3">
-        <v>1.057335292679447</v>
+        <v>1.057335292679445</v>
       </c>
       <c r="L3">
-        <v>1.054228053057972</v>
+        <v>1.054228053057969</v>
       </c>
       <c r="M3">
-        <v>1.063241801593167</v>
+        <v>1.063241801593165</v>
       </c>
       <c r="N3">
-        <v>1.055153465074472</v>
+        <v>1.05515346507447</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -506,7 +506,7 @@
         <v>1.039392791298088</v>
       </c>
       <c r="D4">
-        <v>1.051474261849112</v>
+        <v>1.051474261849111</v>
       </c>
       <c r="E4">
         <v>1.048718968427017</v>
@@ -518,22 +518,22 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0545603111852</v>
+        <v>1.054560311185199</v>
       </c>
       <c r="J4">
-        <v>1.057839819205893</v>
+        <v>1.057839819205892</v>
       </c>
       <c r="K4">
         <v>1.060988730053664</v>
       </c>
       <c r="L4">
-        <v>1.058262914009403</v>
+        <v>1.058262914009402</v>
       </c>
       <c r="M4">
         <v>1.067419817817016</v>
       </c>
       <c r="N4">
-        <v>1.059342073085088</v>
+        <v>1.059342073085087</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,16 +544,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041597988152367</v>
+        <v>1.041597988152368</v>
       </c>
       <c r="D5">
-        <v>1.053209539515129</v>
+        <v>1.05320953951513</v>
       </c>
       <c r="E5">
-        <v>1.05061541176472</v>
+        <v>1.050615411764721</v>
       </c>
       <c r="F5">
-        <v>1.059927574623281</v>
+        <v>1.059927574623283</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -562,19 +562,19 @@
         <v>1.055179419344108</v>
       </c>
       <c r="J5">
-        <v>1.059566324940612</v>
+        <v>1.059566324940613</v>
       </c>
       <c r="K5">
-        <v>1.062495958055095</v>
+        <v>1.062495958055097</v>
       </c>
       <c r="L5">
-        <v>1.059928781958113</v>
+        <v>1.059928781958115</v>
       </c>
       <c r="M5">
-        <v>1.069144943529855</v>
+        <v>1.069144943529857</v>
       </c>
       <c r="N5">
-        <v>1.061071030655983</v>
+        <v>1.061071030655985</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -588,19 +588,19 @@
         <v>1.041966011801718</v>
       </c>
       <c r="D6">
-        <v>1.053499151807746</v>
+        <v>1.053499151807747</v>
       </c>
       <c r="E6">
         <v>1.050931976561463</v>
       </c>
       <c r="F6">
-        <v>1.060253655051346</v>
+        <v>1.060253655051347</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055282544062553</v>
+        <v>1.055282544062554</v>
       </c>
       <c r="J6">
         <v>1.059854396804755</v>
@@ -609,7 +609,7 @@
         <v>1.062747393557571</v>
       </c>
       <c r="L6">
-        <v>1.06020675783729</v>
+        <v>1.060206757837291</v>
       </c>
       <c r="M6">
         <v>1.069432816321716</v>
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039422408741275</v>
+        <v>1.039422408741274</v>
       </c>
       <c r="D7">
         <v>1.051497566967524</v>
       </c>
       <c r="E7">
-        <v>1.048744434384568</v>
+        <v>1.048744434384566</v>
       </c>
       <c r="F7">
-        <v>1.058000375525827</v>
+        <v>1.058000375525826</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054568639540826</v>
+        <v>1.054568639540825</v>
       </c>
       <c r="J7">
-        <v>1.057863011689777</v>
+        <v>1.057863011689776</v>
       </c>
       <c r="K7">
-        <v>1.061008980239569</v>
+        <v>1.061008980239568</v>
       </c>
       <c r="L7">
-        <v>1.058285290472684</v>
+        <v>1.058285290472683</v>
       </c>
       <c r="M7">
-        <v>1.067442989650271</v>
+        <v>1.06744298965027</v>
       </c>
       <c r="N7">
-        <v>1.05936529850496</v>
+        <v>1.059365298504959</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -676,7 +676,7 @@
         <v>1.039318540785696</v>
       </c>
       <c r="F8">
-        <v>1.048291710827231</v>
+        <v>1.048291710827232</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -691,13 +691,13 @@
         <v>1.053494771181754</v>
       </c>
       <c r="L8">
-        <v>1.049991007827253</v>
+        <v>1.049991007827254</v>
       </c>
       <c r="M8">
         <v>1.058854983438395</v>
       </c>
       <c r="N8">
-        <v>1.050753571114732</v>
+        <v>1.050753571114731</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007642015824431</v>
+        <v>1.007642015824435</v>
       </c>
       <c r="D9">
-        <v>1.026518216084663</v>
+        <v>1.026518216084666</v>
       </c>
       <c r="E9">
-        <v>1.021495382397135</v>
+        <v>1.021495382397138</v>
       </c>
       <c r="F9">
-        <v>1.029936047064137</v>
+        <v>1.029936047064141</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045458385804577</v>
+        <v>1.045458385804579</v>
       </c>
       <c r="J9">
-        <v>1.03292777120558</v>
+        <v>1.032927771205584</v>
       </c>
       <c r="K9">
-        <v>1.039195221423567</v>
+        <v>1.03919522142357</v>
       </c>
       <c r="L9">
-        <v>1.034249079610551</v>
+        <v>1.034249079610554</v>
       </c>
       <c r="M9">
-        <v>1.042561411275699</v>
+        <v>1.042561411275702</v>
       </c>
       <c r="N9">
-        <v>1.034394647119164</v>
+        <v>1.034394647119167</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,13 +749,13 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.992572031847768</v>
+        <v>0.9925720318477681</v>
       </c>
       <c r="D10">
         <v>1.014703537537368</v>
       </c>
       <c r="E10">
-        <v>1.008631004029219</v>
+        <v>1.008631004029218</v>
       </c>
       <c r="F10">
         <v>1.016689138013206</v>
@@ -790,7 +790,7 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9857060530647382</v>
+        <v>0.9857060530647374</v>
       </c>
       <c r="D11">
         <v>1.00932955970139</v>
@@ -799,7 +799,7 @@
         <v>1.0027828936746</v>
       </c>
       <c r="F11">
-        <v>1.010667651532043</v>
+        <v>1.010667651532042</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -811,10 +811,10 @@
         <v>1.015685808794647</v>
       </c>
       <c r="K11">
-        <v>1.024077653097613</v>
+        <v>1.024077653097612</v>
       </c>
       <c r="L11">
-        <v>1.017652518832526</v>
+        <v>1.017652518832525</v>
       </c>
       <c r="M11">
         <v>1.025391157101609</v>
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9830988506019478</v>
+        <v>0.9830988506019488</v>
       </c>
       <c r="D12">
-        <v>1.007290528820317</v>
+        <v>1.007290528820318</v>
       </c>
       <c r="E12">
-        <v>1.000564400698317</v>
+        <v>1.000564400698318</v>
       </c>
       <c r="F12">
-        <v>1.008383475060954</v>
+        <v>1.008383475060955</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038247569314562</v>
+        <v>1.038247569314563</v>
       </c>
       <c r="J12">
-        <v>1.01363613024746</v>
+        <v>1.013636130247461</v>
       </c>
       <c r="K12">
-        <v>1.022279374128948</v>
+        <v>1.022279374128949</v>
       </c>
       <c r="L12">
-        <v>1.015680795664061</v>
+        <v>1.015680795664062</v>
       </c>
       <c r="M12">
-        <v>1.02335180431986</v>
+        <v>1.023351804319861</v>
       </c>
       <c r="N12">
-        <v>1.015075609818101</v>
+        <v>1.015075609818102</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,16 +872,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9836607793951967</v>
+        <v>0.9836607793951989</v>
       </c>
       <c r="D13">
-        <v>1.007729921975799</v>
+        <v>1.007729921975801</v>
       </c>
       <c r="E13">
-        <v>1.001042447768897</v>
+        <v>1.001042447768899</v>
       </c>
       <c r="F13">
-        <v>1.008875671710938</v>
+        <v>1.008875671710941</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -890,19 +890,19 @@
         <v>1.038413872287925</v>
       </c>
       <c r="J13">
-        <v>1.014077894530423</v>
+        <v>1.014077894530425</v>
       </c>
       <c r="K13">
-        <v>1.022666970616527</v>
+        <v>1.022666970616529</v>
       </c>
       <c r="L13">
-        <v>1.016105736454449</v>
+        <v>1.016105736454451</v>
       </c>
       <c r="M13">
-        <v>1.023791311072158</v>
+        <v>1.023791311072161</v>
       </c>
       <c r="N13">
-        <v>1.015518001457017</v>
+        <v>1.015518001457019</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9854917372601433</v>
+        <v>0.9854917372601476</v>
       </c>
       <c r="D14">
-        <v>1.009161913880616</v>
+        <v>1.00916191388062</v>
       </c>
       <c r="E14">
-        <v>1.002600484322154</v>
+        <v>1.002600484322158</v>
       </c>
       <c r="F14">
-        <v>1.01047983971903</v>
+        <v>1.010479839719035</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038955406384729</v>
+        <v>1.038955406384731</v>
       </c>
       <c r="J14">
-        <v>1.015517321775085</v>
+        <v>1.015517321775088</v>
       </c>
       <c r="K14">
-        <v>1.023929838828557</v>
+        <v>1.023929838828561</v>
       </c>
       <c r="L14">
-        <v>1.017490430106221</v>
+        <v>1.017490430106225</v>
       </c>
       <c r="M14">
-        <v>1.025223504575769</v>
+        <v>1.025223504575774</v>
       </c>
       <c r="N14">
-        <v>1.01695947285347</v>
+        <v>1.016959472853474</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9866121288734496</v>
+        <v>0.9866121288734485</v>
       </c>
       <c r="D15">
-        <v>1.010038393454582</v>
+        <v>1.010038393454581</v>
       </c>
       <c r="E15">
-        <v>1.003554167357944</v>
+        <v>1.003554167357943</v>
       </c>
       <c r="F15">
-        <v>1.01146177180084</v>
+        <v>1.011461771800839</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03928651805156</v>
+        <v>1.039286518051559</v>
       </c>
       <c r="J15">
-        <v>1.016398131389224</v>
+        <v>1.016398131389223</v>
       </c>
       <c r="K15">
-        <v>1.024702561302817</v>
+        <v>1.024702561302816</v>
       </c>
       <c r="L15">
-        <v>1.018337810345493</v>
+        <v>1.018337810345492</v>
       </c>
       <c r="M15">
-        <v>1.026099979998745</v>
+        <v>1.026099979998744</v>
       </c>
       <c r="N15">
-        <v>1.017841533318292</v>
+        <v>1.017841533318291</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9930200615721895</v>
+        <v>0.9930200615721874</v>
       </c>
       <c r="D16">
-        <v>1.015054414822156</v>
+        <v>1.015054414822155</v>
       </c>
       <c r="E16">
-        <v>1.009012901919996</v>
+        <v>1.009012901919994</v>
       </c>
       <c r="F16">
-        <v>1.017082369323105</v>
+        <v>1.017082369323103</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041176209168264</v>
+        <v>1.041176209168263</v>
       </c>
       <c r="J16">
-        <v>1.021435693761671</v>
+        <v>1.021435693761669</v>
       </c>
       <c r="K16">
-        <v>1.029121179363262</v>
+        <v>1.02912117936326</v>
       </c>
       <c r="L16">
-        <v>1.023185104939559</v>
+        <v>1.023185104939557</v>
       </c>
       <c r="M16">
-        <v>1.031114104442194</v>
+        <v>1.031114104442192</v>
       </c>
       <c r="N16">
-        <v>1.022886249607124</v>
+        <v>1.022886249607121</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,13 +1036,13 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9969446465727216</v>
+        <v>0.9969446465727222</v>
       </c>
       <c r="D17">
         <v>1.01812900472475</v>
       </c>
       <c r="E17">
-        <v>1.012359680161751</v>
+        <v>1.012359680161752</v>
       </c>
       <c r="F17">
         <v>1.020528528052034</v>
@@ -1054,13 +1054,13 @@
         <v>1.042329892015099</v>
       </c>
       <c r="J17">
-        <v>1.024520745962641</v>
+        <v>1.024520745962642</v>
       </c>
       <c r="K17">
         <v>1.031826461992627</v>
       </c>
       <c r="L17">
-        <v>1.026154415188845</v>
+        <v>1.026154415188846</v>
       </c>
       <c r="M17">
         <v>1.034185943575536</v>
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9992013584551469</v>
+        <v>0.9992013584551447</v>
       </c>
       <c r="D18">
-        <v>1.019897762142058</v>
+        <v>1.019897762142056</v>
       </c>
       <c r="E18">
-        <v>1.014285339089036</v>
+        <v>1.014285339089034</v>
       </c>
       <c r="F18">
-        <v>1.022511416427897</v>
+        <v>1.022511416427894</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042991916026376</v>
+        <v>1.042991916026375</v>
       </c>
       <c r="J18">
-        <v>1.02629457149565</v>
+        <v>1.026294571495648</v>
       </c>
       <c r="K18">
-        <v>1.033381651356442</v>
+        <v>1.03338165135644</v>
       </c>
       <c r="L18">
-        <v>1.027861962202484</v>
+        <v>1.027861962202481</v>
       </c>
       <c r="M18">
-        <v>1.035952566725289</v>
+        <v>1.035952566725287</v>
       </c>
       <c r="N18">
-        <v>1.027752027504806</v>
+        <v>1.027752027504804</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,10 +1118,10 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9999654970938412</v>
+        <v>0.9999654970938409</v>
       </c>
       <c r="D19">
-        <v>1.020496805374305</v>
+        <v>1.020496805374304</v>
       </c>
       <c r="E19">
         <v>1.014937577185367</v>
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043215846287728</v>
+        <v>1.043215846287727</v>
       </c>
       <c r="J19">
         <v>1.026895173109963</v>
@@ -1145,10 +1145,10 @@
         <v>1.028440167390505</v>
       </c>
       <c r="M19">
-        <v>1.036550795264431</v>
+        <v>1.03655079526443</v>
       </c>
       <c r="N19">
-        <v>1.028353482042302</v>
+        <v>1.028353482042301</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,7 +1159,7 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9965269687880577</v>
+        <v>0.9965269687880582</v>
       </c>
       <c r="D20">
         <v>1.017801702458576</v>
@@ -1168,13 +1168,13 @@
         <v>1.012003369898675</v>
       </c>
       <c r="F20">
-        <v>1.02016163230745</v>
+        <v>1.020161632307451</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042207251255334</v>
+        <v>1.042207251255333</v>
       </c>
       <c r="J20">
         <v>1.024192429566354</v>
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9849541860706151</v>
+        <v>0.9849541860706161</v>
       </c>
       <c r="D21">
         <v>1.008741448303913</v>
       </c>
       <c r="E21">
-        <v>1.002142997722488</v>
+        <v>1.002142997722489</v>
       </c>
       <c r="F21">
-        <v>1.010008805063266</v>
+        <v>1.010008805063267</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03879647167939</v>
+        <v>1.038796471679391</v>
       </c>
       <c r="J21">
-        <v>1.015094719420323</v>
+        <v>1.015094719420324</v>
       </c>
       <c r="K21">
-        <v>1.023559082404711</v>
+        <v>1.023559082404712</v>
       </c>
       <c r="L21">
-        <v>1.017083883777145</v>
+        <v>1.017083883777146</v>
       </c>
       <c r="M21">
-        <v>1.02480300659159</v>
+        <v>1.024803006591591</v>
       </c>
       <c r="N21">
-        <v>1.016536270354892</v>
+        <v>1.016536270354893</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,16 +1241,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9773453518318983</v>
+        <v>0.9773453518318993</v>
       </c>
       <c r="D22">
-        <v>1.002794195899076</v>
+        <v>1.002794195899077</v>
       </c>
       <c r="E22">
-        <v>0.9956730581873398</v>
+        <v>0.9956730581873403</v>
       </c>
       <c r="F22">
-        <v>1.00334748505825</v>
+        <v>1.003347485058251</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1259,7 +1259,7 @@
         <v>1.036542165317065</v>
       </c>
       <c r="J22">
-        <v>1.009113119664365</v>
+        <v>1.009113119664366</v>
       </c>
       <c r="K22">
         <v>1.018310501708539</v>
@@ -1268,10 +1268,10 @@
         <v>1.011330722750461</v>
       </c>
       <c r="M22">
-        <v>1.018852918020874</v>
+        <v>1.018852918020875</v>
       </c>
       <c r="N22">
-        <v>1.01054617604118</v>
+        <v>1.010546176041181</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,16 +1282,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9814126128113806</v>
+        <v>0.9814126128113815</v>
       </c>
       <c r="D23">
-        <v>1.00597225773562</v>
+        <v>1.005972257735621</v>
       </c>
       <c r="E23">
-        <v>0.9991302184235661</v>
+        <v>0.9991302184235669</v>
       </c>
       <c r="F23">
-        <v>1.00690685634938</v>
+        <v>1.006906856349381</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1300,10 +1300,10 @@
         <v>1.037748242037235</v>
       </c>
       <c r="J23">
-        <v>1.012310492967028</v>
+        <v>1.012310492967029</v>
       </c>
       <c r="K23">
-        <v>1.021116232197592</v>
+        <v>1.021116232197593</v>
       </c>
       <c r="L23">
         <v>1.014405714055579</v>
@@ -1312,7 +1312,7 @@
         <v>1.022033046925126</v>
       </c>
       <c r="N23">
-        <v>1.013748089980678</v>
+        <v>1.013748089980679</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9967157992042999</v>
+        <v>0.9967157992043023</v>
       </c>
       <c r="D24">
-        <v>1.017949671978351</v>
+        <v>1.017949671978353</v>
       </c>
       <c r="E24">
-        <v>1.012164452606044</v>
+        <v>1.012164452606046</v>
       </c>
       <c r="F24">
-        <v>1.020327500408432</v>
+        <v>1.020327500408435</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042262700897545</v>
+        <v>1.042262700897546</v>
       </c>
       <c r="J24">
-        <v>1.024340860508971</v>
+        <v>1.024340860508973</v>
       </c>
       <c r="K24">
-        <v>1.031668736930412</v>
+        <v>1.031668736930414</v>
       </c>
       <c r="L24">
-        <v>1.025981262147018</v>
+        <v>1.02598126214702</v>
       </c>
       <c r="M24">
-        <v>1.034006804654559</v>
+        <v>1.034006804654562</v>
       </c>
       <c r="N24">
-        <v>1.025795542024432</v>
+        <v>1.025795542024435</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1367,10 +1367,10 @@
         <v>1.013215511171292</v>
       </c>
       <c r="D25">
-        <v>1.03089364428306</v>
+        <v>1.030893644283061</v>
       </c>
       <c r="E25">
-        <v>1.026262729272872</v>
+        <v>1.026262729272873</v>
       </c>
       <c r="F25">
         <v>1.03484554572575</v>

--- a/Code/Results/Cases/Case_6_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_26/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025531568811069</v>
+        <v>1.012693264512807</v>
       </c>
       <c r="D2">
-        <v>1.040571330329846</v>
+        <v>1.031559333707065</v>
       </c>
       <c r="E2">
-        <v>1.036814984972527</v>
+        <v>1.026465623465194</v>
       </c>
       <c r="F2">
-        <v>1.045713182705007</v>
+        <v>1.035479501062868</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050626211281976</v>
+        <v>1.047586875645982</v>
       </c>
       <c r="J2">
-        <v>1.046974558560248</v>
+        <v>1.0345008388895</v>
       </c>
       <c r="K2">
-        <v>1.051492961300741</v>
+        <v>1.042595831880319</v>
       </c>
       <c r="L2">
-        <v>1.047784191322064</v>
+        <v>1.037568163491382</v>
       </c>
       <c r="M2">
-        <v>1.056570380924097</v>
+        <v>1.046465725676104</v>
       </c>
       <c r="N2">
-        <v>1.048461382523064</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014874747898296</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.04118922527701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034053655414263</v>
+        <v>1.017555077635871</v>
       </c>
       <c r="D3">
-        <v>1.047273561280551</v>
+        <v>1.034905244588194</v>
       </c>
       <c r="E3">
-        <v>1.044130328593823</v>
+        <v>1.030454437478373</v>
       </c>
       <c r="F3">
-        <v>1.053247750899359</v>
+        <v>1.039582029885199</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053053293987545</v>
+        <v>1.04855213858448</v>
       </c>
       <c r="J3">
-        <v>1.053657151063795</v>
+        <v>1.037578350736925</v>
       </c>
       <c r="K3">
-        <v>1.057335292679445</v>
+        <v>1.045110167372033</v>
       </c>
       <c r="L3">
-        <v>1.054228053057969</v>
+        <v>1.040711930424611</v>
       </c>
       <c r="M3">
-        <v>1.063241801593165</v>
+        <v>1.049732313056294</v>
       </c>
       <c r="N3">
-        <v>1.05515346507447</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015947868925223</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.042964414880802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039392791298088</v>
+        <v>1.020638888448218</v>
       </c>
       <c r="D4">
-        <v>1.051474261849111</v>
+        <v>1.037031044135345</v>
       </c>
       <c r="E4">
-        <v>1.048718968427017</v>
+        <v>1.032990585306271</v>
       </c>
       <c r="F4">
-        <v>1.057974144545052</v>
+        <v>1.042190467344528</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054560311185199</v>
+        <v>1.049154260969199</v>
       </c>
       <c r="J4">
-        <v>1.057839819205892</v>
+        <v>1.039528988621405</v>
       </c>
       <c r="K4">
-        <v>1.060988730053664</v>
+        <v>1.046702171981551</v>
       </c>
       <c r="L4">
-        <v>1.058262914009402</v>
+        <v>1.042706502841908</v>
       </c>
       <c r="M4">
-        <v>1.067419817817016</v>
+        <v>1.051805021239585</v>
       </c>
       <c r="N4">
-        <v>1.059342073085087</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016627571737823</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.044090981728413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041597988152368</v>
+        <v>1.021926268103393</v>
       </c>
       <c r="D5">
-        <v>1.05320953951513</v>
+        <v>1.037921354578225</v>
       </c>
       <c r="E5">
-        <v>1.050615411764721</v>
+        <v>1.034051470949863</v>
       </c>
       <c r="F5">
-        <v>1.059927574623283</v>
+        <v>1.043281788683316</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055179419344108</v>
+        <v>1.04940484395297</v>
       </c>
       <c r="J5">
-        <v>1.059566324940613</v>
+        <v>1.040344742589844</v>
       </c>
       <c r="K5">
-        <v>1.062495958055097</v>
+        <v>1.047368988740677</v>
       </c>
       <c r="L5">
-        <v>1.059928781958115</v>
+        <v>1.043540840489435</v>
       </c>
       <c r="M5">
-        <v>1.069144943529857</v>
+        <v>1.052672238353553</v>
       </c>
       <c r="N5">
-        <v>1.061071030655985</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016912299714083</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.0445696000876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041966011801718</v>
+        <v>1.022148002272865</v>
       </c>
       <c r="D6">
-        <v>1.053499151807747</v>
+        <v>1.038077269912836</v>
       </c>
       <c r="E6">
-        <v>1.050931976561463</v>
+        <v>1.034235155177215</v>
       </c>
       <c r="F6">
-        <v>1.060253655051347</v>
+        <v>1.043470985778811</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055282544062554</v>
+        <v>1.049449924349912</v>
       </c>
       <c r="J6">
-        <v>1.059854396804755</v>
+        <v>1.040487419736572</v>
       </c>
       <c r="K6">
-        <v>1.062747393557571</v>
+        <v>1.047487360243061</v>
       </c>
       <c r="L6">
-        <v>1.060206757837291</v>
+        <v>1.043686487873742</v>
       </c>
       <c r="M6">
-        <v>1.069432816321716</v>
+        <v>1.05282380525179</v>
       </c>
       <c r="N6">
-        <v>1.061359511615216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016962821724178</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.044661988063614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039422408741274</v>
+        <v>1.020673433673761</v>
       </c>
       <c r="D7">
-        <v>1.051497566967524</v>
+        <v>1.037061709743571</v>
       </c>
       <c r="E7">
-        <v>1.048744434384566</v>
+        <v>1.033021423855002</v>
       </c>
       <c r="F7">
-        <v>1.058000375525826</v>
+        <v>1.042222826412895</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054568639540825</v>
+        <v>1.049166567991808</v>
       </c>
       <c r="J7">
-        <v>1.057863011689776</v>
+        <v>1.039556794685558</v>
       </c>
       <c r="K7">
-        <v>1.061008980239568</v>
+        <v>1.0467296408727</v>
       </c>
       <c r="L7">
-        <v>1.058285290472683</v>
+        <v>1.042734124571263</v>
       </c>
       <c r="M7">
-        <v>1.06744298965027</v>
+        <v>1.051834188055123</v>
       </c>
       <c r="N7">
-        <v>1.059365298504959</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016639270758616</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.044130398987795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02844955655946</v>
+        <v>1.014371480303232</v>
       </c>
       <c r="D8">
-        <v>1.042865749241688</v>
+        <v>1.032721991787777</v>
       </c>
       <c r="E8">
-        <v>1.039318540785696</v>
+        <v>1.027844290835485</v>
       </c>
       <c r="F8">
-        <v>1.048291710827232</v>
+        <v>1.036898189882436</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051460072063655</v>
+        <v>1.047929115020033</v>
       </c>
       <c r="J8">
-        <v>1.049263496597358</v>
+        <v>1.035570854146549</v>
       </c>
       <c r="K8">
-        <v>1.053494771181754</v>
+        <v>1.043476240214047</v>
       </c>
       <c r="L8">
-        <v>1.049991007827254</v>
+        <v>1.038659853432563</v>
       </c>
       <c r="M8">
-        <v>1.058854983438395</v>
+        <v>1.047600513005386</v>
       </c>
       <c r="N8">
-        <v>1.050753571114731</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.01525058904356</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.041834557698752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007642015824435</v>
+        <v>1.00273598082164</v>
       </c>
       <c r="D9">
-        <v>1.026518216084666</v>
+        <v>1.024729445224601</v>
       </c>
       <c r="E9">
-        <v>1.021495382397138</v>
+        <v>1.018332379223146</v>
       </c>
       <c r="F9">
-        <v>1.029936047064141</v>
+        <v>1.027114389817013</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045458385804579</v>
+        <v>1.045556642715504</v>
       </c>
       <c r="J9">
-        <v>1.032927771205584</v>
+        <v>1.028192493115002</v>
       </c>
       <c r="K9">
-        <v>1.03919522142357</v>
+        <v>1.037433652770375</v>
       </c>
       <c r="L9">
-        <v>1.034249079610554</v>
+        <v>1.031134867075736</v>
       </c>
       <c r="M9">
-        <v>1.042561411275702</v>
+        <v>1.03978235584227</v>
       </c>
       <c r="N9">
-        <v>1.034394647119167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012673065940573</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.0375588881332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9925720318477681</v>
+        <v>0.9946074955292231</v>
       </c>
       <c r="D10">
-        <v>1.014703537537368</v>
+        <v>1.019173911893612</v>
       </c>
       <c r="E10">
-        <v>1.008631004029218</v>
+        <v>1.011726604899307</v>
       </c>
       <c r="F10">
-        <v>1.016689138013206</v>
+        <v>1.020320114312728</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041044320901807</v>
+        <v>1.043850970702356</v>
       </c>
       <c r="J10">
-        <v>1.021083489639429</v>
+        <v>1.023036709600208</v>
       </c>
       <c r="K10">
-        <v>1.028812294680478</v>
+        <v>1.033205395257545</v>
       </c>
       <c r="L10">
-        <v>1.022846152257892</v>
+        <v>1.025887311298098</v>
       </c>
       <c r="M10">
-        <v>1.030763464040961</v>
+        <v>1.034331925654352</v>
       </c>
       <c r="N10">
-        <v>1.02253354531463</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010871053882366</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.034586045992932</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9857060530647374</v>
+        <v>0.9910125399365713</v>
       </c>
       <c r="D11">
-        <v>1.00932955970139</v>
+        <v>1.016732630760322</v>
       </c>
       <c r="E11">
-        <v>1.0027828936746</v>
+        <v>1.008818617862232</v>
       </c>
       <c r="F11">
-        <v>1.010667651532042</v>
+        <v>1.017329662298162</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039018759146282</v>
+        <v>1.043092473528805</v>
       </c>
       <c r="J11">
-        <v>1.015685808794647</v>
+        <v>1.02076404711431</v>
       </c>
       <c r="K11">
-        <v>1.024077653097612</v>
+        <v>1.031345745554953</v>
       </c>
       <c r="L11">
-        <v>1.017652518832525</v>
+        <v>1.023576122388444</v>
       </c>
       <c r="M11">
-        <v>1.025391157101609</v>
+        <v>1.031932002817555</v>
       </c>
       <c r="N11">
-        <v>1.017128199143926</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010079610381535</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.033304083376671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9830988506019488</v>
+        <v>0.9896484398229064</v>
       </c>
       <c r="D12">
-        <v>1.007290528820318</v>
+        <v>1.015802651482594</v>
       </c>
       <c r="E12">
-        <v>1.000564400698318</v>
+        <v>1.007714786516253</v>
       </c>
       <c r="F12">
-        <v>1.008383475060955</v>
+        <v>1.016194270479958</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038247569314563</v>
+        <v>1.042799150229711</v>
       </c>
       <c r="J12">
-        <v>1.013636130247461</v>
+        <v>1.019897450555894</v>
       </c>
       <c r="K12">
-        <v>1.022279374128949</v>
+        <v>1.030633233335711</v>
       </c>
       <c r="L12">
-        <v>1.015680795664062</v>
+        <v>1.022695661044248</v>
       </c>
       <c r="M12">
-        <v>1.023351804319861</v>
+        <v>1.031017654178541</v>
       </c>
       <c r="N12">
-        <v>1.015075609818102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.009776075429808</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.03280031181908</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9836607793951989</v>
+        <v>0.9899391758990559</v>
       </c>
       <c r="D13">
-        <v>1.007729921975801</v>
+        <v>1.015999868898787</v>
       </c>
       <c r="E13">
-        <v>1.001042447768899</v>
+        <v>1.007949585144138</v>
       </c>
       <c r="F13">
-        <v>1.008875671710941</v>
+        <v>1.016435732619042</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038413872287925</v>
+        <v>1.042860981900779</v>
       </c>
       <c r="J13">
-        <v>1.014077894530425</v>
+        <v>1.020081313217449</v>
       </c>
       <c r="K13">
-        <v>1.022666970616529</v>
+        <v>1.030783797788357</v>
       </c>
       <c r="L13">
-        <v>1.016105736454451</v>
+        <v>1.022882524274596</v>
       </c>
       <c r="M13">
-        <v>1.023791311072161</v>
+        <v>1.031211681402035</v>
       </c>
       <c r="N13">
-        <v>1.015518001457019</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.00984013670216</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.032904266552072</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9854917372601476</v>
+        <v>0.9908990046850086</v>
       </c>
       <c r="D14">
-        <v>1.00916191388062</v>
+        <v>1.016654802600038</v>
       </c>
       <c r="E14">
-        <v>1.002600484322158</v>
+        <v>1.008726545084493</v>
       </c>
       <c r="F14">
-        <v>1.010479839719035</v>
+        <v>1.017234935311158</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038955406384731</v>
+        <v>1.043067769524519</v>
       </c>
       <c r="J14">
-        <v>1.015517321775088</v>
+        <v>1.020691561853327</v>
       </c>
       <c r="K14">
-        <v>1.023929838828561</v>
+        <v>1.031285889425802</v>
       </c>
       <c r="L14">
-        <v>1.017490430106225</v>
+        <v>1.023502502361925</v>
       </c>
       <c r="M14">
-        <v>1.025223504575774</v>
+        <v>1.031855536836993</v>
       </c>
       <c r="N14">
-        <v>1.016959472853474</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010054077795643</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.033260692326513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9866121288734485</v>
+        <v>0.9914933909505609</v>
       </c>
       <c r="D15">
-        <v>1.010038393454581</v>
+        <v>1.017062398425245</v>
       </c>
       <c r="E15">
-        <v>1.003554167357943</v>
+        <v>1.009208674126046</v>
       </c>
       <c r="F15">
-        <v>1.011461771800839</v>
+        <v>1.017730969758872</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039286518051559</v>
+        <v>1.043197111759081</v>
       </c>
       <c r="J15">
-        <v>1.016398131389223</v>
+        <v>1.021071127563674</v>
       </c>
       <c r="K15">
-        <v>1.024702561302816</v>
+        <v>1.031599378553239</v>
       </c>
       <c r="L15">
-        <v>1.018337810345492</v>
+        <v>1.023888018431951</v>
       </c>
       <c r="M15">
-        <v>1.026099979998744</v>
+        <v>1.032255962535714</v>
       </c>
       <c r="N15">
-        <v>1.017841533318291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010187809396688</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.033488226392992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9930200615721874</v>
+        <v>0.994887765203996</v>
       </c>
       <c r="D16">
-        <v>1.015054414822155</v>
+        <v>1.019380584715524</v>
       </c>
       <c r="E16">
-        <v>1.009012901919994</v>
+        <v>1.011960188830917</v>
       </c>
       <c r="F16">
-        <v>1.017082369323103</v>
+        <v>1.02056125894327</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041176209168263</v>
+        <v>1.04392291354559</v>
       </c>
       <c r="J16">
-        <v>1.021435693761669</v>
+        <v>1.023228252301815</v>
       </c>
       <c r="K16">
-        <v>1.02912117936326</v>
+        <v>1.033372839831064</v>
       </c>
       <c r="L16">
-        <v>1.023185104939557</v>
+        <v>1.026080751145769</v>
       </c>
       <c r="M16">
-        <v>1.031114104442192</v>
+        <v>1.034533321102651</v>
       </c>
       <c r="N16">
-        <v>1.022886249607121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010943493828084</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.034745296868562</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9969446465727222</v>
+        <v>0.9969894428088648</v>
       </c>
       <c r="D17">
-        <v>1.01812900472475</v>
+        <v>1.020817823866216</v>
       </c>
       <c r="E17">
-        <v>1.012359680161752</v>
+        <v>1.013666485663118</v>
       </c>
       <c r="F17">
-        <v>1.020528528052034</v>
+        <v>1.022316436788294</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042329892015099</v>
+        <v>1.04436931915968</v>
       </c>
       <c r="J17">
-        <v>1.024520745962642</v>
+        <v>1.024563805914926</v>
       </c>
       <c r="K17">
-        <v>1.031826461992627</v>
+        <v>1.034470428177789</v>
       </c>
       <c r="L17">
-        <v>1.026154415188846</v>
+        <v>1.027439061194948</v>
       </c>
       <c r="M17">
-        <v>1.034185943575536</v>
+        <v>1.035944174122733</v>
       </c>
       <c r="N17">
-        <v>1.02597568293608</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011411256547371</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.035523917554597</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9992013584551447</v>
+        <v>0.9981923213524033</v>
       </c>
       <c r="D18">
-        <v>1.019897762142056</v>
+        <v>1.021636140732372</v>
       </c>
       <c r="E18">
-        <v>1.014285339089034</v>
+        <v>1.014642004415092</v>
       </c>
       <c r="F18">
-        <v>1.022511416427894</v>
+        <v>1.023319609908733</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042991916026375</v>
+        <v>1.044619747477216</v>
       </c>
       <c r="J18">
-        <v>1.026294571495648</v>
+        <v>1.025323794985897</v>
       </c>
       <c r="K18">
-        <v>1.03338165135644</v>
+        <v>1.035091572386148</v>
       </c>
       <c r="L18">
-        <v>1.027861962202481</v>
+        <v>1.028212695046402</v>
       </c>
       <c r="M18">
-        <v>1.035952566725287</v>
+        <v>1.036747601258164</v>
       </c>
       <c r="N18">
-        <v>1.027752027504804</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011675678889283</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.035951439246547</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9999654970938409</v>
+        <v>0.9986112005117923</v>
       </c>
       <c r="D19">
-        <v>1.020496805374304</v>
+        <v>1.021925050868902</v>
       </c>
       <c r="E19">
-        <v>1.014937577185367</v>
+        <v>1.014983415916242</v>
       </c>
       <c r="F19">
-        <v>1.023183046594154</v>
+        <v>1.023670936137125</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043215846287727</v>
+        <v>1.044709878666674</v>
       </c>
       <c r="J19">
-        <v>1.026895173109963</v>
+        <v>1.025591843147553</v>
       </c>
       <c r="K19">
-        <v>1.033908175772001</v>
+        <v>1.035313191396402</v>
       </c>
       <c r="L19">
-        <v>1.028440167390505</v>
+        <v>1.028485248709011</v>
       </c>
       <c r="M19">
-        <v>1.03655079526443</v>
+        <v>1.037030793531</v>
       </c>
       <c r="N19">
-        <v>1.028353482042301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011770279153616</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.036114527074938</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9965269687880582</v>
+        <v>0.9967639119547682</v>
       </c>
       <c r="D20">
-        <v>1.017801702458576</v>
+        <v>1.020663142463747</v>
       </c>
       <c r="E20">
-        <v>1.012003369898675</v>
+        <v>1.013483130261262</v>
       </c>
       <c r="F20">
-        <v>1.020161632307451</v>
+        <v>1.022127804905941</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042207251255333</v>
+        <v>1.044321218637275</v>
       </c>
       <c r="J20">
-        <v>1.024192429566354</v>
+        <v>1.024420151853976</v>
       </c>
       <c r="K20">
-        <v>1.031538589856995</v>
+        <v>1.034352132365886</v>
       </c>
       <c r="L20">
-        <v>1.02583838792468</v>
+        <v>1.027292967148841</v>
       </c>
       <c r="M20">
-        <v>1.033858991940488</v>
+        <v>1.035792411525707</v>
       </c>
       <c r="N20">
-        <v>1.025646900292852</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011360813282852</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.03543894208121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9849541860706161</v>
+        <v>0.9906314067510179</v>
       </c>
       <c r="D21">
-        <v>1.008741448303913</v>
+        <v>1.016477442100012</v>
       </c>
       <c r="E21">
-        <v>1.002142997722489</v>
+        <v>1.008512087576853</v>
       </c>
       <c r="F21">
-        <v>1.010008805063267</v>
+        <v>1.017014614687756</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038796471679391</v>
+        <v>1.043014416059344</v>
       </c>
       <c r="J21">
-        <v>1.015094719420324</v>
+        <v>1.020526115196055</v>
       </c>
       <c r="K21">
-        <v>1.023559082404712</v>
+        <v>1.031153226985051</v>
       </c>
       <c r="L21">
-        <v>1.017083883777146</v>
+        <v>1.023333970609521</v>
       </c>
       <c r="M21">
-        <v>1.024803006591591</v>
+        <v>1.03168065405209</v>
       </c>
       <c r="N21">
-        <v>1.016536270354893</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009997980588778</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.033180442504614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9773453518318993</v>
+        <v>0.9866642770486419</v>
       </c>
       <c r="D22">
-        <v>1.002794195899077</v>
+        <v>1.013769770789881</v>
       </c>
       <c r="E22">
-        <v>0.9956730581873403</v>
+        <v>1.005302706552429</v>
       </c>
       <c r="F22">
-        <v>1.003347485058251</v>
+        <v>1.013713231175988</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036542165317065</v>
+        <v>1.042153963941403</v>
       </c>
       <c r="J22">
-        <v>1.009113119664366</v>
+        <v>1.018001156142763</v>
       </c>
       <c r="K22">
-        <v>1.018310501708539</v>
+        <v>1.029073293768409</v>
       </c>
       <c r="L22">
-        <v>1.011330722750461</v>
+        <v>1.020769842659245</v>
       </c>
       <c r="M22">
-        <v>1.018852918020875</v>
+        <v>1.029017834835004</v>
       </c>
       <c r="N22">
-        <v>1.010546176041181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009111562133389</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.031696303730596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9814126128113815</v>
+        <v>0.9887589454621444</v>
       </c>
       <c r="D23">
-        <v>1.005972257735621</v>
+        <v>1.015192468784881</v>
       </c>
       <c r="E23">
-        <v>0.9991302184235669</v>
+        <v>1.006993737597543</v>
       </c>
       <c r="F23">
-        <v>1.006906856349381</v>
+        <v>1.015452401996135</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037748242037235</v>
+        <v>1.042604097879224</v>
       </c>
       <c r="J23">
-        <v>1.012310492967029</v>
+        <v>1.019328712434414</v>
       </c>
       <c r="K23">
-        <v>1.021116232197593</v>
+        <v>1.030162865591639</v>
       </c>
       <c r="L23">
-        <v>1.014405714055579</v>
+        <v>1.022118277157931</v>
       </c>
       <c r="M23">
-        <v>1.022033046925126</v>
+        <v>1.030417964949021</v>
       </c>
       <c r="N23">
-        <v>1.013748089980679</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009575359060617</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.032457016710574</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9967157992043023</v>
+        <v>0.9968376278380224</v>
       </c>
       <c r="D24">
-        <v>1.017949671978353</v>
+        <v>1.020703391746739</v>
       </c>
       <c r="E24">
-        <v>1.012164452606046</v>
+        <v>1.013538878372646</v>
       </c>
       <c r="F24">
-        <v>1.020327500408435</v>
+        <v>1.022184539732063</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042262700897546</v>
+        <v>1.044328589243711</v>
       </c>
       <c r="J24">
-        <v>1.024340860508973</v>
+        <v>1.024457956487764</v>
       </c>
       <c r="K24">
-        <v>1.031668736930414</v>
+        <v>1.034376432392564</v>
       </c>
       <c r="L24">
-        <v>1.02598126214702</v>
+        <v>1.027332335762263</v>
       </c>
       <c r="M24">
-        <v>1.034006804654562</v>
+        <v>1.03583295725586</v>
       </c>
       <c r="N24">
-        <v>1.025795542024435</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011370487179323</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.035428702361496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013215511171292</v>
+        <v>1.00583623694282</v>
       </c>
       <c r="D25">
-        <v>1.030893644283061</v>
+        <v>1.02686572792038</v>
       </c>
       <c r="E25">
-        <v>1.026262729272873</v>
+        <v>1.02086463526615</v>
       </c>
       <c r="F25">
-        <v>1.03484554572575</v>
+        <v>1.029719780925189</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047077831194456</v>
+        <v>1.046206503126491</v>
       </c>
       <c r="J25">
-        <v>1.037306161463522</v>
+        <v>1.030168772224993</v>
       </c>
       <c r="K25">
-        <v>1.043030584819461</v>
+        <v>1.039060826965548</v>
       </c>
       <c r="L25">
-        <v>1.038466584746688</v>
+        <v>1.033147464193967</v>
       </c>
       <c r="M25">
-        <v>1.046925981979862</v>
+        <v>1.041873611193378</v>
       </c>
       <c r="N25">
-        <v>1.03877925519348</v>
+        <v>1.013367376093467</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.038737938833858</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_26/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012693264512807</v>
+        <v>1.011796968253965</v>
       </c>
       <c r="D2">
-        <v>1.031559333707065</v>
+        <v>1.030247746242784</v>
       </c>
       <c r="E2">
-        <v>1.026465623465194</v>
+        <v>1.025626020601231</v>
       </c>
       <c r="F2">
-        <v>1.035479501062868</v>
+        <v>1.034399536433802</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047586875645982</v>
+        <v>1.047086909696533</v>
       </c>
       <c r="J2">
-        <v>1.0345008388895</v>
+        <v>1.033630469583171</v>
       </c>
       <c r="K2">
-        <v>1.042595831880319</v>
+        <v>1.041301171524921</v>
       </c>
       <c r="L2">
-        <v>1.037568163491382</v>
+        <v>1.036739525281519</v>
       </c>
       <c r="M2">
-        <v>1.046465725676104</v>
+        <v>1.045399563353345</v>
       </c>
       <c r="N2">
-        <v>1.014874747898296</v>
+        <v>1.015752310148524</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.04118922527701</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.040282539395342</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022904402967621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017555077635871</v>
+        <v>1.016321197688518</v>
       </c>
       <c r="D3">
-        <v>1.034905244588194</v>
+        <v>1.033245583267818</v>
       </c>
       <c r="E3">
-        <v>1.030454437478373</v>
+        <v>1.029304871731133</v>
       </c>
       <c r="F3">
-        <v>1.039582029885199</v>
+        <v>1.038167931106169</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04855213858448</v>
+        <v>1.047902449575767</v>
       </c>
       <c r="J3">
-        <v>1.037578350736925</v>
+        <v>1.036376607264966</v>
       </c>
       <c r="K3">
-        <v>1.045110167372033</v>
+        <v>1.043470043364458</v>
       </c>
       <c r="L3">
-        <v>1.040711930424611</v>
+        <v>1.039576034202569</v>
       </c>
       <c r="M3">
-        <v>1.049732313056294</v>
+        <v>1.048334671203733</v>
       </c>
       <c r="N3">
-        <v>1.015947868925223</v>
+        <v>1.016511759122353</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042964414880802</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041813176717453</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023391141799974</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020638888448218</v>
+        <v>1.019193939375395</v>
       </c>
       <c r="D4">
-        <v>1.037031044135345</v>
+        <v>1.035152635415415</v>
       </c>
       <c r="E4">
-        <v>1.032990585306271</v>
+        <v>1.03164690815754</v>
       </c>
       <c r="F4">
-        <v>1.042190467344528</v>
+        <v>1.040566898666858</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049154260969199</v>
+        <v>1.048410385689695</v>
       </c>
       <c r="J4">
-        <v>1.039528988621405</v>
+        <v>1.038119087311393</v>
       </c>
       <c r="K4">
-        <v>1.046702171981551</v>
+        <v>1.044844532503323</v>
       </c>
       <c r="L4">
-        <v>1.042706502841908</v>
+        <v>1.041377816422819</v>
       </c>
       <c r="M4">
-        <v>1.051805021239585</v>
+        <v>1.050199180986927</v>
       </c>
       <c r="N4">
-        <v>1.016627571737823</v>
+        <v>1.016993420744105</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044090981728413</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042786022860115</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023697151609241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021926268103393</v>
+        <v>1.02039378056868</v>
       </c>
       <c r="D5">
-        <v>1.037921354578225</v>
+        <v>1.035952053258544</v>
       </c>
       <c r="E5">
-        <v>1.034051470949863</v>
+        <v>1.032627220562629</v>
       </c>
       <c r="F5">
-        <v>1.043281788683316</v>
+        <v>1.041571253496349</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.04940484395297</v>
+        <v>1.048621782991502</v>
       </c>
       <c r="J5">
-        <v>1.040344742589844</v>
+        <v>1.038848298907003</v>
       </c>
       <c r="K5">
-        <v>1.047368988740677</v>
+        <v>1.045420877897845</v>
       </c>
       <c r="L5">
-        <v>1.043540840489435</v>
+        <v>1.042132046773169</v>
       </c>
       <c r="M5">
-        <v>1.052672238353553</v>
+        <v>1.050979872680438</v>
       </c>
       <c r="N5">
-        <v>1.016912299714083</v>
+        <v>1.017195384775398</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.0445696000876</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043201383180178</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023825408349515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022148002272865</v>
+        <v>1.020600334497677</v>
       </c>
       <c r="D6">
-        <v>1.038077269912836</v>
+        <v>1.036092290945086</v>
       </c>
       <c r="E6">
-        <v>1.034235155177215</v>
+        <v>1.032796925529194</v>
       </c>
       <c r="F6">
-        <v>1.043470985778811</v>
+        <v>1.041745401042629</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049449924349912</v>
+        <v>1.048660066643777</v>
       </c>
       <c r="J6">
-        <v>1.040487419736572</v>
+        <v>1.038975962663093</v>
       </c>
       <c r="K6">
-        <v>1.047487360243061</v>
+        <v>1.045523641814563</v>
       </c>
       <c r="L6">
-        <v>1.043686487873742</v>
+        <v>1.042263793385712</v>
       </c>
       <c r="M6">
-        <v>1.05282380525179</v>
+        <v>1.051116463960228</v>
       </c>
       <c r="N6">
-        <v>1.016962821724178</v>
+        <v>1.01723128814566</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.044661988063614</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04328360670406</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023848895681396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020673433673761</v>
+        <v>1.019237658617675</v>
       </c>
       <c r="D7">
-        <v>1.037061709743571</v>
+        <v>1.035189607761913</v>
       </c>
       <c r="E7">
-        <v>1.033021423855002</v>
+        <v>1.031685993307631</v>
       </c>
       <c r="F7">
-        <v>1.042222826412895</v>
+        <v>1.040606926774828</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049166567991808</v>
+        <v>1.048425633472666</v>
       </c>
       <c r="J7">
-        <v>1.039556794685558</v>
+        <v>1.03815582860496</v>
       </c>
       <c r="K7">
-        <v>1.0467296408727</v>
+        <v>1.044878229848857</v>
       </c>
       <c r="L7">
-        <v>1.042734124571263</v>
+        <v>1.041413586544281</v>
       </c>
       <c r="M7">
-        <v>1.051834188055123</v>
+        <v>1.050235925729863</v>
       </c>
       <c r="N7">
-        <v>1.016639270758616</v>
+        <v>1.017031460393859</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044130398987795</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042831848307245</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023707265088492</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014371480303232</v>
+        <v>1.013394431007929</v>
       </c>
       <c r="D8">
-        <v>1.032721991787777</v>
+        <v>1.03131737934425</v>
       </c>
       <c r="E8">
-        <v>1.027844290835485</v>
+        <v>1.02693020695352</v>
       </c>
       <c r="F8">
-        <v>1.036898189882436</v>
+        <v>1.035734040428167</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047929115020033</v>
+        <v>1.04739010075472</v>
       </c>
       <c r="J8">
-        <v>1.035570854146549</v>
+        <v>1.034621097660408</v>
       </c>
       <c r="K8">
-        <v>1.043476240214047</v>
+        <v>1.042089210030624</v>
       </c>
       <c r="L8">
-        <v>1.038659853432563</v>
+        <v>1.03775734075511</v>
       </c>
       <c r="M8">
-        <v>1.047600513005386</v>
+        <v>1.046450785731007</v>
       </c>
       <c r="N8">
-        <v>1.01525058904356</v>
+        <v>1.016108663884029</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.041834557698752</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040864827149891</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023086642107536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.00273598082164</v>
+        <v>1.002593098912523</v>
       </c>
       <c r="D9">
-        <v>1.024729445224601</v>
+        <v>1.024175731291867</v>
       </c>
       <c r="E9">
-        <v>1.018332379223146</v>
+        <v>1.018182011758962</v>
       </c>
       <c r="F9">
-        <v>1.027114389817013</v>
+        <v>1.026771453808185</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045556642715504</v>
+        <v>1.045383380855194</v>
       </c>
       <c r="J9">
-        <v>1.028192493115002</v>
+        <v>1.028054619308818</v>
       </c>
       <c r="K9">
-        <v>1.037433652770375</v>
+        <v>1.036888383838639</v>
       </c>
       <c r="L9">
-        <v>1.031134867075736</v>
+        <v>1.030986828734032</v>
       </c>
       <c r="M9">
-        <v>1.03978235584227</v>
+        <v>1.039444617868405</v>
       </c>
       <c r="N9">
-        <v>1.012673065940573</v>
+        <v>1.014300021614476</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.0375588881332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037184076695382</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021904214809249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9946074955292231</v>
+        <v>0.9951244603659922</v>
       </c>
       <c r="D10">
-        <v>1.019173911893612</v>
+        <v>1.0192708321333</v>
       </c>
       <c r="E10">
-        <v>1.011726604899307</v>
+        <v>1.012177430417154</v>
       </c>
       <c r="F10">
-        <v>1.020320114312728</v>
+        <v>1.020616553223017</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043850970702356</v>
+        <v>1.043958432095516</v>
       </c>
       <c r="J10">
-        <v>1.023036709600208</v>
+        <v>1.023532862216162</v>
       </c>
       <c r="K10">
-        <v>1.033205395257545</v>
+        <v>1.033300649862649</v>
       </c>
       <c r="L10">
-        <v>1.025887311298098</v>
+        <v>1.026330244206834</v>
       </c>
       <c r="M10">
-        <v>1.034331925654352</v>
+        <v>1.034623286141132</v>
       </c>
       <c r="N10">
-        <v>1.010871053882366</v>
+        <v>1.013168513308299</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.034586045992932</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.034665818949754</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021080640809661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9910125399365713</v>
+        <v>0.9919175756781101</v>
       </c>
       <c r="D11">
-        <v>1.016732630760322</v>
+        <v>1.017191024250724</v>
       </c>
       <c r="E11">
-        <v>1.008818617862232</v>
+        <v>1.009622873817949</v>
       </c>
       <c r="F11">
-        <v>1.017329662298162</v>
+        <v>1.017993475302432</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043092473528805</v>
+        <v>1.043358645575618</v>
       </c>
       <c r="J11">
-        <v>1.02076404711431</v>
+        <v>1.021630501827478</v>
       </c>
       <c r="K11">
-        <v>1.031345745554953</v>
+        <v>1.031795865223347</v>
       </c>
       <c r="L11">
-        <v>1.023576122388444</v>
+        <v>1.024365570215478</v>
       </c>
       <c r="M11">
-        <v>1.031932002817555</v>
+        <v>1.03258385566392</v>
       </c>
       <c r="N11">
-        <v>1.010079610381535</v>
+        <v>1.012880759035621</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033304083376671</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033637977889268</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020741652700685</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9896484398229064</v>
+        <v>0.9907107856837067</v>
       </c>
       <c r="D12">
-        <v>1.015802651482594</v>
+        <v>1.016406067413688</v>
       </c>
       <c r="E12">
-        <v>1.007714786516253</v>
+        <v>1.008662463285059</v>
       </c>
       <c r="F12">
-        <v>1.016194270479958</v>
+        <v>1.017006508946363</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042799150229711</v>
+        <v>1.043129438978956</v>
       </c>
       <c r="J12">
-        <v>1.019897450555894</v>
+        <v>1.020913551980665</v>
       </c>
       <c r="K12">
-        <v>1.030633233335711</v>
+        <v>1.031225561188339</v>
       </c>
       <c r="L12">
-        <v>1.022695661044248</v>
+        <v>1.023625564864772</v>
       </c>
       <c r="M12">
-        <v>1.031017654178541</v>
+        <v>1.031814986308059</v>
       </c>
       <c r="N12">
-        <v>1.009776075429808</v>
+        <v>1.012787825328923</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.03280031181908</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033234761445013</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020612277433992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9899391758990559</v>
+        <v>0.9909675869575363</v>
       </c>
       <c r="D13">
-        <v>1.015999868898787</v>
+        <v>1.016572034165375</v>
       </c>
       <c r="E13">
-        <v>1.007949585144138</v>
+        <v>1.00886632524755</v>
       </c>
       <c r="F13">
-        <v>1.016435732619042</v>
+        <v>1.017215964813948</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042860981900779</v>
+        <v>1.043177464009136</v>
       </c>
       <c r="J13">
-        <v>1.020081313217449</v>
+        <v>1.021065156441783</v>
       </c>
       <c r="K13">
-        <v>1.030783797788357</v>
+        <v>1.03134548927037</v>
       </c>
       <c r="L13">
-        <v>1.022882524274596</v>
+        <v>1.023782138998508</v>
       </c>
       <c r="M13">
-        <v>1.031211681402035</v>
+        <v>1.031977650776179</v>
       </c>
       <c r="N13">
-        <v>1.00984013670216</v>
+        <v>1.012806184994834</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.032904266552072</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033316812222042</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020639206077384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9908990046850086</v>
+        <v>0.9918169455660469</v>
       </c>
       <c r="D14">
-        <v>1.016654802600038</v>
+        <v>1.017125109548118</v>
       </c>
       <c r="E14">
-        <v>1.008726545084493</v>
+        <v>1.009542567406458</v>
       </c>
       <c r="F14">
-        <v>1.017234935311158</v>
+        <v>1.017910930457385</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043067769524519</v>
+        <v>1.043339212227913</v>
       </c>
       <c r="J14">
-        <v>1.020691561853327</v>
+        <v>1.021570303436846</v>
       </c>
       <c r="K14">
-        <v>1.031285889425802</v>
+        <v>1.031747694867923</v>
       </c>
       <c r="L14">
-        <v>1.023502502361925</v>
+        <v>1.024303476890424</v>
       </c>
       <c r="M14">
-        <v>1.031855536836993</v>
+        <v>1.032519333666995</v>
       </c>
       <c r="N14">
-        <v>1.010054077795643</v>
+        <v>1.012872377715516</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.033260692326513</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033602746490478</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020730606174308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9914933909505609</v>
+        <v>0.9923441644948212</v>
       </c>
       <c r="D15">
-        <v>1.017062398425245</v>
+        <v>1.017470651229088</v>
       </c>
       <c r="E15">
-        <v>1.009208674126046</v>
+        <v>1.009963461125902</v>
       </c>
       <c r="F15">
-        <v>1.017730969758872</v>
+        <v>1.018343545285182</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043197111759081</v>
+        <v>1.043441112293861</v>
       </c>
       <c r="J15">
-        <v>1.021071127563674</v>
+        <v>1.021885900250408</v>
       </c>
       <c r="K15">
-        <v>1.031599378553239</v>
+        <v>1.032000309032751</v>
       </c>
       <c r="L15">
-        <v>1.023888018431951</v>
+        <v>1.024628998233243</v>
       </c>
       <c r="M15">
-        <v>1.032255962535714</v>
+        <v>1.032857572649537</v>
       </c>
       <c r="N15">
-        <v>1.010187809396688</v>
+        <v>1.01291708197636</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.033488226392992</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033787804110929</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020788578555377</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.994887765203996</v>
+        <v>0.9953757792259617</v>
       </c>
       <c r="D16">
-        <v>1.019380584715524</v>
+        <v>1.019450625223956</v>
       </c>
       <c r="E16">
-        <v>1.011960188830917</v>
+        <v>1.01238453560188</v>
       </c>
       <c r="F16">
-        <v>1.02056125894327</v>
+        <v>1.020830275816028</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04392291354559</v>
+        <v>1.044018252211126</v>
       </c>
       <c r="J16">
-        <v>1.023228252301815</v>
+        <v>1.02369669744154</v>
       </c>
       <c r="K16">
-        <v>1.033372839831064</v>
+        <v>1.033441680757131</v>
       </c>
       <c r="L16">
-        <v>1.026080751145769</v>
+        <v>1.026497694815068</v>
       </c>
       <c r="M16">
-        <v>1.034533321102651</v>
+        <v>1.03479774544585</v>
       </c>
       <c r="N16">
-        <v>1.010943493828084</v>
+        <v>1.013204977144921</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.034745296868562</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034810363089293</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021116951515773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9969894428088648</v>
+        <v>0.997272694489638</v>
       </c>
       <c r="D17">
-        <v>1.020817823866216</v>
+        <v>1.020693789918441</v>
       </c>
       <c r="E17">
-        <v>1.013666485663118</v>
+        <v>1.013904364792467</v>
       </c>
       <c r="F17">
-        <v>1.022316436788294</v>
+        <v>1.022390306148923</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.04436931915968</v>
+        <v>1.044379890425423</v>
       </c>
       <c r="J17">
-        <v>1.024563805914926</v>
+        <v>1.024836083976953</v>
       </c>
       <c r="K17">
-        <v>1.034470428177789</v>
+        <v>1.034348456579849</v>
       </c>
       <c r="L17">
-        <v>1.027439061194948</v>
+        <v>1.027672914538974</v>
       </c>
       <c r="M17">
-        <v>1.035944174122733</v>
+        <v>1.036016820171504</v>
       </c>
       <c r="N17">
-        <v>1.011411256547371</v>
+        <v>1.013423722283998</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.035523917554597</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.035454312536726</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021324268114109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9981923213524033</v>
+        <v>0.9983662030351972</v>
       </c>
       <c r="D18">
-        <v>1.021636140732372</v>
+        <v>1.021406908325602</v>
       </c>
       <c r="E18">
-        <v>1.014642004415092</v>
+        <v>1.014780300349879</v>
       </c>
       <c r="F18">
-        <v>1.023319609908733</v>
+        <v>1.023288633744913</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044619747477216</v>
+        <v>1.044584673027629</v>
       </c>
       <c r="J18">
-        <v>1.025323794985897</v>
+        <v>1.025491075660929</v>
       </c>
       <c r="K18">
-        <v>1.035091572386148</v>
+        <v>1.034866085427527</v>
       </c>
       <c r="L18">
-        <v>1.028212695046402</v>
+        <v>1.028348692123477</v>
       </c>
       <c r="M18">
-        <v>1.036747601258164</v>
+        <v>1.03671712895392</v>
       </c>
       <c r="N18">
-        <v>1.011675678889283</v>
+        <v>1.013561929157352</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.035951439246547</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.035807508010646</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02144154737043</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9986112005117923</v>
+        <v>0.998748121509344</v>
       </c>
       <c r="D19">
-        <v>1.021925050868902</v>
+        <v>1.021660108374087</v>
       </c>
       <c r="E19">
-        <v>1.014983415916242</v>
+        <v>1.015088029381089</v>
       </c>
       <c r="F19">
-        <v>1.023670936137125</v>
+        <v>1.023604449265461</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044709878666674</v>
+        <v>1.044659261209046</v>
       </c>
       <c r="J19">
-        <v>1.025591843147553</v>
+        <v>1.025723602511128</v>
       </c>
       <c r="K19">
-        <v>1.035313191396402</v>
+        <v>1.035052551788518</v>
       </c>
       <c r="L19">
-        <v>1.028485248709011</v>
+        <v>1.028588133931345</v>
       </c>
       <c r="M19">
-        <v>1.037030793531</v>
+        <v>1.036965381470299</v>
       </c>
       <c r="N19">
-        <v>1.011770279153616</v>
+        <v>1.013615128287802</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.036114527074938</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.035946361030462</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021484887275044</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9967639119547682</v>
+        <v>0.9970683671564466</v>
       </c>
       <c r="D20">
-        <v>1.020663142463747</v>
+        <v>1.020559339423395</v>
       </c>
       <c r="E20">
-        <v>1.013483130261262</v>
+        <v>1.013740321940224</v>
       </c>
       <c r="F20">
-        <v>1.022127804905941</v>
+        <v>1.022221937594874</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044321218637275</v>
+        <v>1.044340613952224</v>
       </c>
       <c r="J20">
-        <v>1.024420151853976</v>
+        <v>1.024712767968794</v>
       </c>
       <c r="K20">
-        <v>1.034352132365886</v>
+        <v>1.034250060830501</v>
       </c>
       <c r="L20">
-        <v>1.027292967148841</v>
+        <v>1.027545791867598</v>
       </c>
       <c r="M20">
-        <v>1.035792411525707</v>
+        <v>1.035884980197713</v>
       </c>
       <c r="N20">
-        <v>1.011360813282852</v>
+        <v>1.013398373599653</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.03543894208121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035383278742222</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021301640890142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9906314067510179</v>
+        <v>0.9916111720434088</v>
       </c>
       <c r="D21">
-        <v>1.016477442100012</v>
+        <v>1.017000316755543</v>
       </c>
       <c r="E21">
-        <v>1.008512087576853</v>
+        <v>1.009384734233985</v>
       </c>
       <c r="F21">
-        <v>1.017014614687756</v>
+        <v>1.017747224892545</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043014416059344</v>
+        <v>1.043309837802484</v>
       </c>
       <c r="J21">
-        <v>1.020526115196055</v>
+        <v>1.021463862501091</v>
       </c>
       <c r="K21">
-        <v>1.031153226985051</v>
+        <v>1.031666615343105</v>
       </c>
       <c r="L21">
-        <v>1.023333970609521</v>
+        <v>1.024190464825101</v>
       </c>
       <c r="M21">
-        <v>1.03168065405209</v>
+        <v>1.032399994621778</v>
       </c>
       <c r="N21">
-        <v>1.009997980588778</v>
+        <v>1.012929054124297</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.033180442504614</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.033560274030745</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020716127660401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9866642770486419</v>
+        <v>0.9880860393980191</v>
       </c>
       <c r="D22">
-        <v>1.013769770789881</v>
+        <v>1.014702953498522</v>
       </c>
       <c r="E22">
-        <v>1.005302706552429</v>
+        <v>1.006578470177467</v>
       </c>
       <c r="F22">
-        <v>1.013713231175988</v>
+        <v>1.014864260509875</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042153963941403</v>
+        <v>1.042630692705934</v>
       </c>
       <c r="J22">
-        <v>1.018001156142763</v>
+        <v>1.019358203188927</v>
       </c>
       <c r="K22">
-        <v>1.029073293768409</v>
+        <v>1.029988662674201</v>
       </c>
       <c r="L22">
-        <v>1.020769842659245</v>
+        <v>1.022020723127991</v>
       </c>
       <c r="M22">
-        <v>1.029017834835004</v>
+        <v>1.030146894792072</v>
       </c>
       <c r="N22">
-        <v>1.009111562133389</v>
+        <v>1.012611874481272</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031696303730596</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.032359071923283</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020332203188526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9887589454621444</v>
+        <v>0.9899263692569529</v>
       </c>
       <c r="D23">
-        <v>1.015192468784881</v>
+        <v>1.015892416542375</v>
       </c>
       <c r="E23">
-        <v>1.006993737597543</v>
+        <v>1.008037311744486</v>
       </c>
       <c r="F23">
-        <v>1.015452401996135</v>
+        <v>1.016363708706478</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042604097879224</v>
+        <v>1.04297727068755</v>
       </c>
       <c r="J23">
-        <v>1.019328712434414</v>
+        <v>1.020444635925094</v>
       </c>
       <c r="K23">
-        <v>1.030162865591639</v>
+        <v>1.030849804108034</v>
       </c>
       <c r="L23">
-        <v>1.022118277157931</v>
+        <v>1.023142049206652</v>
       </c>
       <c r="M23">
-        <v>1.030417964949021</v>
+        <v>1.031312349991528</v>
       </c>
       <c r="N23">
-        <v>1.009575359060617</v>
+        <v>1.01272887921406</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.032457016710574</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032957331325246</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020526011284011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9968376278380224</v>
+        <v>0.9971356183581082</v>
       </c>
       <c r="D24">
-        <v>1.020703391746739</v>
+        <v>1.020593145306932</v>
       </c>
       <c r="E24">
-        <v>1.013538878372646</v>
+        <v>1.013790250022533</v>
       </c>
       <c r="F24">
-        <v>1.022184539732063</v>
+        <v>1.022272416696553</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044328589243711</v>
+        <v>1.044345402517943</v>
       </c>
       <c r="J24">
-        <v>1.024457956487764</v>
+        <v>1.024744377908275</v>
       </c>
       <c r="K24">
-        <v>1.034376432392564</v>
+        <v>1.034268022409332</v>
       </c>
       <c r="L24">
-        <v>1.027332335762263</v>
+        <v>1.027579445327704</v>
       </c>
       <c r="M24">
-        <v>1.03583295725586</v>
+        <v>1.035919376209862</v>
       </c>
       <c r="N24">
-        <v>1.011370487179323</v>
+        <v>1.013400425129814</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.035428702361496</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035365891750543</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021303002711613</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00583623694282</v>
+        <v>1.005451934292893</v>
       </c>
       <c r="D25">
-        <v>1.02686572792038</v>
+        <v>1.026071394197355</v>
       </c>
       <c r="E25">
-        <v>1.02086463526615</v>
+        <v>1.020493683726834</v>
       </c>
       <c r="F25">
-        <v>1.029719780925189</v>
+        <v>1.029141660490169</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046206503126491</v>
+        <v>1.045929239938565</v>
       </c>
       <c r="J25">
-        <v>1.030168772224993</v>
+        <v>1.029797201897805</v>
       </c>
       <c r="K25">
-        <v>1.039060826965548</v>
+        <v>1.038278030866189</v>
       </c>
       <c r="L25">
-        <v>1.033147464193967</v>
+        <v>1.032781978596326</v>
       </c>
       <c r="M25">
-        <v>1.041873611193378</v>
+        <v>1.041303826788124</v>
       </c>
       <c r="N25">
-        <v>1.013367376093467</v>
+        <v>1.014751596820012</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.038737938833858</v>
+        <v>1.038197976749797</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022224174209864</v>
       </c>
     </row>
   </sheetData>
